--- a/Desktop/MYSARAH/DIGESTION/IQC SCAP 050225/RB & IQC.xlsx
+++ b/Desktop/MYSARAH/DIGESTION/IQC SCAP 050225/RB & IQC.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gunasama\Desktop\Borang 2.0\Digestion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gunasama\Desktop\MYSARAH\DIGESTION\IQC SCAP 050225\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5569598-5661-4106-A77C-C57B102214E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6916F340-E28A-4F21-BD3E-B78F64BF6156}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{F2413BE7-6F11-422B-B3D0-49B7FEF2D3D4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="1" xr2:uid="{F2413BE7-6F11-422B-B3D0-49B7FEF2D3D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Form" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="54">
   <si>
     <t xml:space="preserve">UNIT ANALISIS TRADISIONAL </t>
   </si>
@@ -238,7 +238,13 @@
     <t>(PKKK/200/UAT/003; PKKK/300/UAT/045; PKKK/300/UAT/046)</t>
   </si>
   <si>
-    <t>Sila Pilih</t>
+    <t>gerhadt 2</t>
+  </si>
+  <si>
+    <t>PG 603S</t>
+  </si>
+  <si>
+    <t>Kapsul lembut</t>
   </si>
 </sst>
 </file>
@@ -842,162 +848,162 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1187,7 +1193,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="Form!$J$4" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="Form!$J$4" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1203,7 +1209,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="Form!$G$14" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="Form!$G$14" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2514,7 +2520,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr/>
-            <a:t>0</a:t>
+            <a:t>060225</a:t>
           </a:fld>
           <a:endParaRPr lang="en-MY" sz="1100"/>
         </a:p>
@@ -3010,7 +3016,7 @@
               <a:cs typeface="Times New Roman"/>
             </a:rPr>
             <a:pPr/>
-            <a:t>0.000</a:t>
+            <a:t>100.076</a:t>
           </a:fld>
           <a:endParaRPr lang="en-MY" sz="1100">
             <a:solidFill>
@@ -3080,7 +3086,7 @@
               <a:cs typeface="Times New Roman"/>
             </a:rPr>
             <a:pPr/>
-            <a:t>0.000</a:t>
+            <a:t>100.073</a:t>
           </a:fld>
           <a:endParaRPr lang="en-MY" sz="1100"/>
         </a:p>
@@ -3146,7 +3152,7 @@
               <a:cs typeface="Times New Roman"/>
             </a:rPr>
             <a:pPr/>
-            <a:t>0.000</a:t>
+            <a:t>100.028</a:t>
           </a:fld>
           <a:endParaRPr lang="en-MY" sz="1100"/>
         </a:p>
@@ -3288,7 +3294,7 @@
               <a:cs typeface="Times New Roman"/>
             </a:rPr>
             <a:pPr/>
-            <a:t> </a:t>
+            <a:t>116.421</a:t>
           </a:fld>
           <a:endParaRPr lang="en-MY" sz="1100">
             <a:solidFill>
@@ -3362,7 +3368,7 @@
               <a:cs typeface="Times New Roman"/>
             </a:rPr>
             <a:pPr/>
-            <a:t> </a:t>
+            <a:t>16.345</a:t>
           </a:fld>
           <a:endParaRPr lang="en-MY" sz="1100">
             <a:solidFill>
@@ -3584,7 +3590,7 @@
               <a:cs typeface="Times New Roman"/>
             </a:rPr>
             <a:pPr/>
-            <a:t> </a:t>
+            <a:t>16.344</a:t>
           </a:fld>
           <a:endParaRPr lang="en-MY" sz="1100">
             <a:solidFill>
@@ -3658,7 +3664,7 @@
               <a:cs typeface="Times New Roman"/>
             </a:rPr>
             <a:pPr/>
-            <a:t> </a:t>
+            <a:t>16.350</a:t>
           </a:fld>
           <a:endParaRPr lang="en-MY" sz="1100">
             <a:solidFill>
@@ -3734,7 +3740,7 @@
               <a:cs typeface="Times New Roman"/>
             </a:rPr>
             <a:pPr/>
-            <a:t> </a:t>
+            <a:t>116.413</a:t>
           </a:fld>
           <a:endParaRPr lang="en-MY" sz="1100">
             <a:solidFill>
@@ -3810,7 +3816,7 @@
               <a:cs typeface="Times New Roman"/>
             </a:rPr>
             <a:pPr/>
-            <a:t> </a:t>
+            <a:t>116.424</a:t>
           </a:fld>
           <a:endParaRPr lang="en-MY" sz="1100">
             <a:solidFill>
@@ -3886,7 +3892,7 @@
               <a:cs typeface="Times New Roman"/>
             </a:rPr>
             <a:pPr/>
-            <a:t> </a:t>
+            <a:t>1.502</a:t>
           </a:fld>
           <a:endParaRPr lang="en-MY" sz="1100">
             <a:solidFill>
@@ -4103,7 +4109,7 @@
               <a:cs typeface="Times New Roman"/>
             </a:rPr>
             <a:pPr/>
-            <a:t> </a:t>
+            <a:t>GH2</a:t>
           </a:fld>
           <a:endParaRPr lang="en-MY" sz="1100"/>
         </a:p>
@@ -4144,50 +4150,79 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="F2">
-            <v>0</v>
+            <v>100.06899999999999</v>
           </cell>
         </row>
         <row r="3">
           <cell r="F3">
-            <v>0</v>
+            <v>100.07400000000001</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4" t="str">
+            <v>RB GH A &amp; B 050225</v>
           </cell>
         </row>
         <row r="5">
+          <cell r="B5" t="str">
+            <v>IQC SCAP BLK 050225</v>
+          </cell>
           <cell r="F5">
-            <v>0</v>
+            <v>100.07600000000001</v>
           </cell>
         </row>
         <row r="6">
+          <cell r="B6" t="str">
+            <v>IQC SCAP A 050225</v>
+          </cell>
           <cell r="F6">
-            <v>0</v>
+            <v>100.07299999999999</v>
           </cell>
         </row>
         <row r="7">
+          <cell r="B7" t="str">
+            <v>IQC SCAP B 050225</v>
+          </cell>
           <cell r="F7">
-            <v>0</v>
+            <v>100.02800000000001</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="B29" t="str">
+            <v>AMIR / MAISARAH</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="B30">
+            <v>45698</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="B32" t="str">
+            <v>060225</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
+      <sheetData sheetId="19" refreshError="1"/>
+      <sheetData sheetId="20" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4493,8 +4528,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4523,9 +4558,9 @@
       <c r="A2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="21">
+      <c r="B2" s="21" t="str">
         <f>[1]Form!$B$29</f>
-        <v>0</v>
+        <v>AMIR / MAISARAH</v>
       </c>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
@@ -4546,7 +4581,7 @@
       </c>
       <c r="B3" s="22">
         <f>[1]Form!$B$30</f>
-        <v>0</v>
+        <v>45698</v>
       </c>
       <c r="C3" s="19"/>
       <c r="D3" s="19"/>
@@ -4579,21 +4614,21 @@
       </c>
       <c r="F4" s="19" t="b">
         <f>IF(B4="Gerhadt 2", TRUE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="19" t="b">
         <v>0</v>
       </c>
       <c r="H4" s="19" t="str">
         <f>IF(F4=TRUE,"GH2","")</f>
-        <v/>
+        <v>GH2</v>
       </c>
       <c r="I4" s="19" t="s">
         <v>29</v>
       </c>
       <c r="J4" s="19" t="b">
         <f>OR(Form!E4=TRUE, Form!F4=TRUE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" s="19"/>
       <c r="L4" s="19"/>
@@ -4605,7 +4640,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C5" s="19"/>
       <c r="D5" s="19"/>
@@ -4624,9 +4659,9 @@
       <c r="A6" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="26" t="str">
         <f>[1]Form!$B$4</f>
-        <v>0</v>
+        <v>RB GH A &amp; B 050225</v>
       </c>
       <c r="C6" s="19"/>
       <c r="D6" s="19"/>
@@ -4769,9 +4804,9 @@
       <c r="A13" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="27">
+      <c r="B13" s="27" t="str">
         <f>[1]Form!$B$32</f>
-        <v>0</v>
+        <v>060225</v>
       </c>
       <c r="C13" s="19"/>
       <c r="D13" s="19" t="s">
@@ -4801,7 +4836,7 @@
         <v>45</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C14" s="19"/>
       <c r="D14" s="19" t="b">
@@ -4818,7 +4853,7 @@
       </c>
       <c r="G14" s="19" t="b">
         <f>IF(B14="Kapsul lembut", TRUE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" s="19" t="b">
         <f>IF(B14="Krim/salap", TRUE)</f>
@@ -4853,9 +4888,9 @@
       <c r="A16" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="21">
+      <c r="B16" s="21" t="str">
         <f>[1]Form!$B$5</f>
-        <v>0</v>
+        <v>IQC SCAP BLK 050225</v>
       </c>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
@@ -4876,7 +4911,7 @@
       </c>
       <c r="B17" s="24">
         <f>[1]Form!$F$5</f>
-        <v>0</v>
+        <v>100.07600000000001</v>
       </c>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
@@ -4913,9 +4948,9 @@
       <c r="A19" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="21">
+      <c r="B19" s="21" t="str">
         <f>[1]Form!$B$6</f>
-        <v>0</v>
+        <v>IQC SCAP A 050225</v>
       </c>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
@@ -4936,7 +4971,7 @@
       </c>
       <c r="B20" s="24">
         <f>[1]Form!$F$6</f>
-        <v>0</v>
+        <v>100.07299999999999</v>
       </c>
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
@@ -4973,9 +5008,9 @@
       <c r="A22" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="21">
+      <c r="B22" s="21" t="str">
         <f>[1]Form!$B$7</f>
-        <v>0</v>
+        <v>IQC SCAP B 050225</v>
       </c>
       <c r="C22" s="19"/>
       <c r="D22" s="19" t="s">
@@ -4997,7 +5032,7 @@
       </c>
       <c r="B23" s="24">
         <f>[1]Form!$F$7</f>
-        <v>0</v>
+        <v>100.02800000000001</v>
       </c>
       <c r="C23" s="19"/>
       <c r="D23" s="19"/>
@@ -5140,7 +5175,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A10" zoomScale="130" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="130" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
@@ -5157,101 +5192,101 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="65"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="74"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="68"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="77"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="70"/>
-      <c r="C3" s="73">
+      <c r="B3" s="60"/>
+      <c r="C3" s="80" t="str">
         <f>Form!B2</f>
-        <v>0</v>
-      </c>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
+        <v>AMIR / MAISARAH</v>
+      </c>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
     </row>
     <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="70"/>
-      <c r="C4" s="74">
+      <c r="B4" s="60"/>
+      <c r="C4" s="81">
         <f>Form!B3</f>
-        <v>0</v>
-      </c>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
+        <v>45698</v>
+      </c>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="71" t="s">
+      <c r="A5" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="75" t="s">
+      <c r="B5" s="79"/>
+      <c r="C5" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="77"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="84"/>
     </row>
     <row r="6" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="83" t="s">
+      <c r="B6" s="58"/>
+      <c r="C6" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="84"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84"/>
-      <c r="H6" s="85"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="66"/>
     </row>
     <row r="7" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="70"/>
-      <c r="C7" s="82" t="str">
+      <c r="B7" s="60"/>
+      <c r="C7" s="63" t="str">
         <f>Form!B5</f>
-        <v>Sila Pilih</v>
-      </c>
-      <c r="D7" s="82"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="82"/>
+        <v>PG 603S</v>
+      </c>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
     </row>
     <row r="8" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -5269,9 +5304,9 @@
       <c r="A10" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="14" t="str">
         <f>Form!B6</f>
-        <v>0</v>
+        <v>RB GH A &amp; B 050225</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5279,93 +5314,93 @@
         <f>"HNO" &amp; "₃" &amp; " B/N:"</f>
         <v>HNO₃ B/N:</v>
       </c>
-      <c r="B11" s="86">
+      <c r="B11" s="67">
         <f>Form!B7</f>
         <v>1123090</v>
       </c>
-      <c r="C11" s="59" t="s">
+      <c r="C11" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="59"/>
+      <c r="D11" s="49"/>
     </row>
     <row r="12" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="37" t="str">
         <f>"(exp: " &amp; TEXT(Form!B8,"dd/mm/yy") &amp; ")"</f>
         <v>(exp: 16/11/25)</v>
       </c>
-      <c r="B12" s="87"/>
-      <c r="C12" s="89" t="s">
+      <c r="B12" s="68"/>
+      <c r="C12" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="90"/>
+      <c r="D12" s="71"/>
     </row>
     <row r="13" spans="1:8" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="80" t="str">
+      <c r="A13" s="61" t="str">
         <f>"H" &amp; "₂" &amp; "O" &amp; "₂" &amp; " B/N:"</f>
         <v>H₂O₂ B/N:</v>
       </c>
-      <c r="B13" s="86" t="str">
+      <c r="B13" s="67" t="str">
         <f>Form!B9</f>
         <v>K55266610321</v>
       </c>
-      <c r="C13" s="89"/>
-      <c r="D13" s="90"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="71"/>
     </row>
     <row r="14" spans="1:8" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="81"/>
-      <c r="B14" s="88"/>
-      <c r="C14" s="54" t="s">
+      <c r="A14" s="62"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="54"/>
+      <c r="D14" s="91"/>
     </row>
     <row r="15" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="37" t="str">
         <f>"(exp: " &amp; TEXT(Form!B10,"dd/mm/yy") &amp; ")"</f>
         <v>(exp: 31/05/28)</v>
       </c>
-      <c r="B15" s="87"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="91"/>
+      <c r="D15" s="91"/>
     </row>
     <row r="16" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="36" t="str">
         <f>"H" &amp; "Cl" &amp; " B/N:"</f>
         <v>HCl B/N:</v>
       </c>
-      <c r="B16" s="43">
+      <c r="B16" s="85">
         <f>Form!B11</f>
         <v>4122020</v>
       </c>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
+      <c r="C16" s="91"/>
+      <c r="D16" s="91"/>
     </row>
     <row r="17" spans="1:8" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="38" t="str">
         <f>"(exp: " &amp; TEXT(Form!B12,"dd/mm/yy") &amp; ")"</f>
         <v>(exp: 11/03/25)</v>
       </c>
-      <c r="B17" s="44"/>
+      <c r="B17" s="86"/>
       <c r="C17" s="35"/>
       <c r="D17" s="35"/>
     </row>
     <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="50"/>
+      <c r="A18" s="53"/>
       <c r="B18" s="6"/>
-      <c r="C18" s="57" t="s">
+      <c r="C18" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
+      <c r="D18" s="94"/>
+      <c r="E18" s="94"/>
     </row>
     <row r="19" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="56"/>
+      <c r="A19" s="93"/>
       <c r="B19" s="32"/>
-      <c r="C19" s="55" t="s">
+      <c r="C19" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
+      <c r="D19" s="92"/>
+      <c r="E19" s="92"/>
       <c r="F19" s="1" t="s">
         <v>23</v>
       </c>
@@ -5385,18 +5420,18 @@
        "A: " &amp; TEXT([1]Form!$F$2, "0.000") &amp; "     B: " &amp; TEXT([1]Form!$F$3, "0.000"),
        TEXT([1]Form!$F$2, "0.000")),
     "")</f>
-        <v/>
+        <v>A: 100.069     B: 100.074</v>
       </c>
       <c r="F20" s="34"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="56" t="s">
+      <c r="A21" s="93" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="56"/>
-      <c r="C21" s="56"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="93"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -5404,38 +5439,38 @@
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="59" t="s">
+      <c r="A22" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="59"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="59"/>
-      <c r="H22" s="59"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
     </row>
     <row r="23" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="94"/>
-      <c r="B23" s="95"/>
-      <c r="C23" s="96"/>
-      <c r="D23" s="45" t="s">
+      <c r="A23" s="43"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="E23" s="46"/>
-      <c r="F23" s="47">
+      <c r="E23" s="88"/>
+      <c r="F23" s="89" t="str">
         <f>Form!B16</f>
-        <v>0</v>
-      </c>
-      <c r="G23" s="47"/>
-      <c r="H23" s="48"/>
+        <v>IQC SCAP BLK 050225</v>
+      </c>
+      <c r="G23" s="89"/>
+      <c r="H23" s="90"/>
     </row>
     <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="49" t="s">
+      <c r="A24" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="50"/>
-      <c r="C24" s="51"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="54"/>
       <c r="D24" s="13" t="s">
         <v>19</v>
       </c>
@@ -5445,9 +5480,9 @@
       <c r="H24" s="11"/>
     </row>
     <row r="25" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="58"/>
-      <c r="B25" s="59"/>
-      <c r="C25" s="60"/>
+      <c r="A25" s="50"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="51"/>
       <c r="D25" s="12"/>
       <c r="E25" s="7"/>
       <c r="F25" s="10"/>
@@ -5455,56 +5490,56 @@
       <c r="H25" s="11"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="58" t="s">
+      <c r="A26" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="59"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="58" t="s">
+      <c r="B26" s="49"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="59"/>
-      <c r="F26" s="59"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="49"/>
       <c r="G26" s="10"/>
       <c r="H26" s="11"/>
     </row>
     <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="91" t="s">
+      <c r="A27" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="92"/>
-      <c r="C27" s="93"/>
-      <c r="D27" s="61" t="s">
+      <c r="B27" s="47"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="95" t="s">
         <v>18</v>
       </c>
-      <c r="E27" s="62"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="52" t="s">
+      <c r="E27" s="96"/>
+      <c r="F27" s="96"/>
+      <c r="G27" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="H27" s="53"/>
+      <c r="H27" s="56"/>
     </row>
     <row r="28" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="94"/>
-      <c r="B28" s="95"/>
-      <c r="C28" s="96"/>
-      <c r="D28" s="45" t="s">
+      <c r="A28" s="43"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="E28" s="46"/>
-      <c r="F28" s="47">
+      <c r="E28" s="88"/>
+      <c r="F28" s="89" t="str">
         <f>Form!B19</f>
-        <v>0</v>
-      </c>
-      <c r="G28" s="47"/>
-      <c r="H28" s="48"/>
+        <v>IQC SCAP A 050225</v>
+      </c>
+      <c r="G28" s="89"/>
+      <c r="H28" s="90"/>
     </row>
     <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="49" t="s">
+      <c r="A29" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B29" s="50"/>
-      <c r="C29" s="51"/>
+      <c r="B29" s="53"/>
+      <c r="C29" s="54"/>
       <c r="D29" s="13" t="s">
         <v>19</v>
       </c>
@@ -5514,9 +5549,9 @@
       <c r="H29" s="11"/>
     </row>
     <row r="30" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="58"/>
-      <c r="B30" s="59"/>
-      <c r="C30" s="60"/>
+      <c r="A30" s="50"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="51"/>
       <c r="D30" s="12"/>
       <c r="E30" s="7"/>
       <c r="F30" s="10"/>
@@ -5524,56 +5559,56 @@
       <c r="H30" s="11"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="58" t="s">
+      <c r="A31" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="59"/>
-      <c r="C31" s="60"/>
-      <c r="D31" s="58" t="s">
+      <c r="B31" s="49"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="E31" s="59"/>
-      <c r="F31" s="59"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="49"/>
       <c r="G31" s="10"/>
       <c r="H31" s="11"/>
     </row>
     <row r="32" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="91" t="s">
+      <c r="A32" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="92"/>
-      <c r="C32" s="93"/>
-      <c r="D32" s="91" t="s">
+      <c r="B32" s="47"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="E32" s="92"/>
-      <c r="F32" s="92"/>
-      <c r="G32" s="52" t="s">
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="H32" s="53"/>
+      <c r="H32" s="56"/>
     </row>
     <row r="33" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="94"/>
-      <c r="B33" s="95"/>
-      <c r="C33" s="96"/>
-      <c r="D33" s="45" t="s">
+      <c r="A33" s="43"/>
+      <c r="B33" s="44"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="E33" s="46"/>
-      <c r="F33" s="47">
+      <c r="E33" s="88"/>
+      <c r="F33" s="89" t="str">
         <f>Form!B22</f>
-        <v>0</v>
-      </c>
-      <c r="G33" s="47"/>
-      <c r="H33" s="48"/>
+        <v>IQC SCAP B 050225</v>
+      </c>
+      <c r="G33" s="89"/>
+      <c r="H33" s="90"/>
     </row>
     <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="49" t="s">
+      <c r="A34" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B34" s="50"/>
-      <c r="C34" s="51"/>
+      <c r="B34" s="53"/>
+      <c r="C34" s="54"/>
       <c r="D34" s="13" t="s">
         <v>19</v>
       </c>
@@ -5583,9 +5618,9 @@
       <c r="H34" s="11"/>
     </row>
     <row r="35" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="58"/>
-      <c r="B35" s="59"/>
-      <c r="C35" s="60"/>
+      <c r="A35" s="50"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="51"/>
       <c r="D35" s="12"/>
       <c r="E35" s="7"/>
       <c r="F35" s="10"/>
@@ -5593,34 +5628,34 @@
       <c r="H35" s="11"/>
     </row>
     <row r="36" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="58" t="s">
+      <c r="A36" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="B36" s="59"/>
-      <c r="C36" s="60"/>
-      <c r="D36" s="58" t="s">
+      <c r="B36" s="49"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="E36" s="59"/>
-      <c r="F36" s="59"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="49"/>
       <c r="G36" s="10"/>
       <c r="H36" s="11"/>
     </row>
     <row r="37" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="91" t="s">
+      <c r="A37" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="92"/>
-      <c r="C37" s="93"/>
-      <c r="D37" s="91" t="s">
+      <c r="B37" s="47"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="E37" s="92"/>
-      <c r="F37" s="92"/>
-      <c r="G37" s="52" t="s">
+      <c r="E37" s="47"/>
+      <c r="F37" s="47"/>
+      <c r="G37" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="H37" s="53"/>
+      <c r="H37" s="56"/>
     </row>
     <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
@@ -5644,44 +5679,6 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A22:H22"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="C5:H5"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="F33:H33"/>
@@ -5698,6 +5695,44 @@
     <mergeCell ref="C18:E18"/>
     <mergeCell ref="A30:C30"/>
     <mergeCell ref="D27:F27"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:C25"/>
   </mergeCells>
   <pageMargins left="0.83575581395348841" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
